--- a/SourceDB.xlsx
+++ b/SourceDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\001_My_Git_Repo\knowledge_searching_engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\001_My_Git_Repo\knowledge_searching_engine\kbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACB8EB9-3972-4A1F-8C55-8F22F88906B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27EC210-0AA1-42CD-8B80-9695D80670FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Keywords</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,27 +35,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
+    <t>《天局》矫健</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test hello kitty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华为 苹果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Macbook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电脑</t>
+    <t>做买卖跟其他任何事情一样，只要你去做，慢慢就上手了。当然悟性很重要，任何商业都有其模式，秘密就藏在模式里
+墨菲定律：如果一件事情可能往坏的方向发展，那就肯定会往最坏的方向发展
+人还以为自己是天才，终于寻到属于脑袋的表演舞台。哪知南柯一梦，醒来时发现我早已身陷骗局!快速累积的巨额利润化为乌有，就连我辛苦卖书攒下的本钱也打了水漂。疯狂的世道，疯狂的人,进行着一场充满讽刺意味的游戏!哪里有真实?瞧，我整天买卖的大豆小麦黄金白银，它们都在哪里?我连毛也没摸到一根! 实物变成符号，商品化为合约，华尔街用这一切虚构出投资世界使我之类投机者陷人虚无缥缈、不着边际的梦境。真相是颠倒的，所以你永远看不见真相。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,8 +85,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -381,13 +370,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -397,28 +390,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="70" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/SourceDB.xlsx
+++ b/SourceDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\001_My_Git_Repo\knowledge_searching_engine\kbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27EC210-0AA1-42CD-8B80-9695D80670FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3A2AD7-D71A-4DA3-B813-BCF34C126A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Keywords</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,27 @@
     <t>做买卖跟其他任何事情一样，只要你去做，慢慢就上手了。当然悟性很重要，任何商业都有其模式，秘密就藏在模式里
 墨菲定律：如果一件事情可能往坏的方向发展，那就肯定会往最坏的方向发展
 人还以为自己是天才，终于寻到属于脑袋的表演舞台。哪知南柯一梦，醒来时发现我早已身陷骗局!快速累积的巨额利润化为乌有，就连我辛苦卖书攒下的本钱也打了水漂。疯狂的世道，疯狂的人,进行着一场充满讽刺意味的游戏!哪里有真实?瞧，我整天买卖的大豆小麦黄金白银，它们都在哪里?我连毛也没摸到一根! 实物变成符号，商品化为合约，华尔街用这一切虚构出投资世界使我之类投机者陷人虚无缥缈、不着边际的梦境。真相是颠倒的，所以你永远看不见真相。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRISP-DM, Cross Industry Standard Process - Data Mining. 跨行业标准数据挖掘流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.业务理解（business understanding）：确定目标，明确分析需求
+2.数据理解（data understanding）:收集原始数据，描述数据，探索数据，检验数据质量
+3.数据准备（data preparation）:选择数据，清洗数据，构造数据，整合数据，格式化数据
+4.建立模型（modeling）：选择建模参数，参数调优，生成测试计划，构建模型
+5.评估模型（evaluation）：对模型进行较为全面的评价，评价结果，重申过程
+6.部署（deployment）：分析结果应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际象棋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.chess.com/home，全球最大的国际象棋网站。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,11 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -370,15 +392,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.9140625" customWidth="1"/>
     <col min="2" max="2" width="127.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -396,6 +418,22 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="84" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/SourceDB.xlsx
+++ b/SourceDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\001_My_Git_Repo\knowledge_searching_engine\kbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3A2AD7-D71A-4DA3-B813-BCF34C126A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AB0A2B-4119-4C5E-A741-6D346A6286DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="350" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>Keywords</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,30 +39,957 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>做买卖跟其他任何事情一样，只要你去做，慢慢就上手了。当然悟性很重要，任何商业都有其模式，秘密就藏在模式里
-墨菲定律：如果一件事情可能往坏的方向发展，那就肯定会往最坏的方向发展
-人还以为自己是天才，终于寻到属于脑袋的表演舞台。哪知南柯一梦，醒来时发现我早已身陷骗局!快速累积的巨额利润化为乌有，就连我辛苦卖书攒下的本钱也打了水漂。疯狂的世道，疯狂的人,进行着一场充满讽刺意味的游戏!哪里有真实?瞧，我整天买卖的大豆小麦黄金白银，它们都在哪里?我连毛也没摸到一根! 实物变成符号，商品化为合约，华尔街用这一切虚构出投资世界使我之类投机者陷人虚无缥缈、不着边际的梦境。真相是颠倒的，所以你永远看不见真相。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CRISP-DM, Cross Industry Standard Process - Data Mining. 跨行业标准数据挖掘流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.业务理解（business understanding）：确定目标，明确分析需求
-2.数据理解（data understanding）:收集原始数据，描述数据，探索数据，检验数据质量
-3.数据准备（data preparation）:选择数据，清洗数据，构造数据，整合数据，格式化数据
-4.建立模型（modeling）：选择建模参数，参数调优，生成测试计划，构建模型
-5.评估模型（evaluation）：对模型进行较为全面的评价，评价结果，重申过程
-6.部署（deployment）：分析结果应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国际象棋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.chess.com/home，全球最大的国际象棋网站。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一种迭代算法。其核心思想是针对同一个训练集训练不同的分类器(弱分类器)，然后把这些弱分类器集合起来，构成一个更强的最终分类器（强分类器）（数据挖掘十大算法之一）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自编码器。是一类在半监督学习和非监督学习中使用的人工神经网络(Artificial Neural Networks, ANNs)，其功能是通过将输入信息作为学习目标，对输入信息进行表征学习(Representation Learning)。自编码器包含编码器(Encoder)和解码器(Decoder)两部分。按学习范式，自编码器可以被分为收缩自编码器(Contractive Autoencoder)、正则自编码器(Regularized Autoencoder)和变分自编码器(Variational AutoEncoder, VAE)，其中前两者是判别模型、后者是生成模型。按构筑类型，自编码器可以是前馈结构或递归结构的神经网络。自编码器具有一般意义上表征学习算法的功能，被应用于降维(Dimensionality Reduction)和异常值检测(Anomaly Detection)。包含卷积层构筑的自编码器可被应用于计算机视觉问题，包括图像降噪(Image Denoising)、神经风格迁移(Neural Style Transfer)等</t>
+  </si>
+  <si>
+    <t>AlexNet，算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdaBoost，算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AE(Auto-Encoder)自编码器，算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANN(Artificial Neural Networks), 人工神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工神经网络。ANN是指由大量的处理单元(神经元) 互相连接而形成的复杂网络结构，是对人脑组织结构和运行机制的某种抽象、简化和模拟。人工神经网络(Artificial Neural Network，简称ANN)，以数学模型模拟神经元活动，是基于模仿大脑神经网络结构和功能而建立的一种信息处理系统</t>
+  </si>
+  <si>
+    <t>ANOVA(Analysis Of Variance), 方差分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方差分析，又称“变异系数分析”或“F-检验”。用于两个或两个以上样本均数差别的显著性检验。</t>
+  </si>
+  <si>
+    <t>Aprioir，算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种挖掘关联规则的频繁项集算法。是第一个关联规则挖掘算法，也是最经典的算法。它利用逐层搜索的迭代方法找出数据库中项集的关系，以形成规则，其过程由连接（类矩阵运算）与剪枝（去掉那些没必要的中间结果）组成。该算法中项集的概念即为项的集合。包含K个项的集合为k项集。项集出现的频率是包含项集的事务数，称为项集的频率。如果某项集满足最小支持度，则称它为频繁项集。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR(Auto-Regression), 自回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自回归。是统计学上一种处理时间序列的方法，利用过往x各期的变现来预测x本期的表现。不是用x来预测y，而是用x来预测x，所以叫自回归。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARMA(Auto-Regression Integrated Moving Average),自回归移动平均混合模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自回归移动平均混合模型。是研究时间序列的重要方法，由自回归（AR）和移动平均（MA）混合组成。模型参量法高分辨率谱分析方法之一。这种方法是研究平稳随机过程有理谱的典型方法，适用于很大一类实际问题。它比AR模型法与MA模型法有较精确的谱估计及较优良的谱分辨率性能，但其参数估算比较繁琐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARIMA(Auto-Regression Integrated Moving Average)，差分整合移动自回归模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差分整合移动自回归模型，或叫“整合移动平均自回归模型”。ARIMA(p，d，q)中，AR是“自回归”，p为自回归项数；MA为“滑动平均”，q为滑动平均项数；d为使之成为平稳序列所做的差分次数（阶数）</t>
+  </si>
+  <si>
+    <t>Attention:注意力机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;论文：Attention is all you need&gt;，是一种能让模型对重要信息重点关注并充分学习吸收的技术，它不算是一个完整的模型，应当是一种技术，能够作用于任何序列模型。对于一段文本序列，我们通常要使用某种机制对该序列进行编码，通过降维等方式将其encode成一个固定长度的向量，用于输入到后面的全连接层。Attention机制最核心的地方就是如何对Query和key计算注意力权重。我们的最终目标是要能够帮助decoder在生成词语时，有一个不同词语的权重的参考。在训练时，对于decoder我们是有训练目标的，此时将decoder中的信息定义为一个Query。而encoder中包含了所有可能出现的词语，我们将其作为一个字典，该字典的key为所有encoder的序列信息。n个单词相当于当前字典中有n条记录，而字典的value通常也是所有encoder的序列信息。上面对应于第一步，然后是第二部计算注意力权重，由于我们要让模型自己去学习该对哪些语素重点关注，因此要用我们的学习目标Query来参与这个过程，因此对于Query的每个向量，通过一个函数 ，计算预测i时刻词时，需要学习的注意力权重，由于包含n个单词，因此应当是一个n维的向量，为了后续计算方便，需要将该向量进行softmax归一化，让向量的每一维元素都是一个概率值。最后对value vectors进行加权线性组合，得到带权重参考的“字典”输出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boosting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强学习或提升算法。是一种重要的集成学习算法，AdaBoost是其中最成功的代表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP(Back Propagation), 反向传播算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反向传播算法。建立在梯度下降法的基础上。Back Propagation Neural Network：反向传播神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bert(Bidirectional Encoder Representation from Transformers)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一个预训练的语言表征模型。它强调了不再像以往一样采用传统的单向语言模型或者把两个单向语言模型进行浅层拼接的方法进行预训练，而是采用新的Masked Language Model（MLM），以致能生成深度的双向语言表征。Bert可以优化word-embedding层，代替word2vec来取得更好的NER效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bert+BiLSTM+CRF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型实现文本训练，实体识别</t>
+  </si>
+  <si>
+    <t>Binomial Distribution：二项分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泊松分布的参数λ是单位时间(或单位面积)内随机事件的平均发生次数。泊松分布适合于描述单位时间内随机事件发生的次数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bi-RNN(Bidirectional-Recurrent Neural Network)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双向循环神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGD(Batch Gradient Descent)，批量梯度下降法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blackbox Testing：黑盒测试</t>
+  </si>
+  <si>
+    <t>黑盒测试也称功能测试或数据驱动测试，它是在已知产品所应具有的功能，通过测试来检验每个功能都是否能够正常使用。在测试时，把程序看作一个不能打开的黑盒子，在完全不考虑程序内部结构和内部特性的情况下，测试人员进行直接测试，检查系统功能是否按照需求规格说明书的规定正常使用、是否能适当的接收输入数据而输出正确的结果等，检查相应的文档是否采用了正确的模板、是否满足规范需求</t>
+  </si>
+  <si>
+    <t>Boosting Decision Tree:提升树算法</t>
+  </si>
+  <si>
+    <t>提升树通过多轮迭代，每轮迭代产生一个弱分类器，每个分类器在上一轮分类器的残差基础上进行训练</t>
+  </si>
+  <si>
+    <t>CART(Classification and Regression Tree):分类回归树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CART生成的过程其实就是特征选择的过程，首先遍历每个特征，然后遍历每个特征所有可能的切分点，找到最优特征j对应的最优特征m。回归树可以选择平方误差、分类数可以选择基尼系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNN(Convolutional Neural Network):卷积神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷积神经网络是由多个基础模块堆叠而成，其基础模块包含：卷积层、池化层、非线性激活、批量标准化、全连接层等。神经元的输出结果是权重值、激活函数等按照既定的公式计算获得。从数学层面来看，卷积的实质上是数字矩阵在空间维度上以窗口滑移的方式计算每一个窗口位置矩阵的加权之和，进行滑动的窗口称为卷积核(Kernel)，卷积核进行卷积计算的矩阵称为特征图。特征图的尺寸越大，意味着计算量越大，卷积后的特征图为了更好的用于训练分类器，需进行池化操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convolutional Layer：卷积层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在于卷积神经网络中，由若干卷积单元组成。每个卷积单元的参数都是通过反向传播算法最佳化得到的。卷积运算的目的是提取输入的不同特征，第一层卷积层可能只能提取一些低级的特征如边缘、线条和角等层级，更多层的网路能从低级特征中迭代提取更复杂的特征</t>
+  </si>
+  <si>
+    <t>CRF(Conditional Random Fields):条件随机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是给定一组输入序列条件下另一组输出序列的条件概率分布模型，在自然语言处理中得到了广泛应用，常用于词性标注。条件随机场是逻辑回归的序列化版本。逻辑回归是用于分类的对数线性模型，条件随机场是用于序列化标注的对数线性模型。对于词性标注问题，HMM模型也可以解决。HMM的思路是用生成办法，就是说，在已知要标注的句子s的情况下，去判断生成标注序列l的概率。每一个HMM模型都等价于某个CRF，但CRF比HMM更有优势的两点是：1.可以定义数量更多，种类更丰富的特征函数（HMM是生成模型，只能由前序标签来生成）；2.可以使用任意的权重（HMM特征函数为log形式概率，只能小于0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRM(Customer Relationship Management):客户关系系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBSCAN(Density-Based Spatial Clustering of Application with Nosie):有代表性的基于密度的聚类算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discriminative Model: 判别模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督学习的一种，根据特征X预测标记Y，求得概率P(Y|X)。对于新的特征X输入，可以直接得出标记Y，相当于直接得到了明确的判别边界。比如线性回归模型，支持向量机等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dropout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效地防止神经网络的过拟合。相对于一般如线性模型使用正则的方法来防止模型过拟合，而在神经网络中Dropout通过修改神经网络本身结构来实现。对于某一层神经元，通过定义的概率来随机删除一些神经元，同时保持输入层与输出层神经元的个数不变，然后按照神经网络的学习方法进行参数更新，下一次迭代中，重新随机删除一些神经元，直至训练结束。为了提升神经网络的性能，在一些权重数量较多的神经网络模型中，为了防止过拟合现象的发生，常会在全连接层前面增加一个 Drop-out 层。Drop-out层将全连接层中所有神经元按照一定的概率随机失活，即将神经元从该次网络训练中丢弃。这样的操作能够减少权重的个数，从而减小参数量，提高网络训练速度；又因其每次训练对神经元的失活都是随机的，能够保证每一次小批量的训练都是在学习不同的数据信息，防止过拟合现象的发生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELMo(Embeddings from Language Models)：语义模型的嵌入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>利用ELMo的word embedding来对任务进行训练。ELMo表征是“深”的，就是说它们是biLSTM的所有层的内部表征的函数。这样做的好处是能够产生丰富的词语表征。通常的做法是把它们作为输入加到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已有的模型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中，一般能够明显的提高原模型的表现 (https://arxiv.org/pdf/1802.05365.pdf)</t>
+    </r>
+  </si>
+  <si>
+    <t>ERP(Enterprise Resource Planning):企业资源计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由美国 Gartner Group 公司于1990年提出。企业资源计划是 MRP II（企业制造资源计划）下一代的制造业系统和资源计划软件。除了MRP II 已有的生产资源计划、制造、财务、销售、采购等功能外，还有质量管理，实验室管理，业务流程管理，产品数据管理，存货、分销与运输管理，人力资源管理和定期报告系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FastText, 快速词向量训练工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由Facebook开源的fastText工具不仅实现了fastText文本分类工具，还实现了快速词向量训练工具。fastText模型和word2vec的CROW模型特别相似(word2vec主要有两种模型：skip-gram 模型和CBOW模型)。不同的是，CBOW的输入是目标单词的上下文，fastText的输入是多个单词及其n-gram特征，这些特征用来表示单个文档；CBOW的输入单词被onehot编码过，fastText的输入特征是被embedding过；CBOW的输出是目标词汇，fastText的输出是文档对应的类标。</t>
+  </si>
+  <si>
+    <t>FC(Fully Connected Layers):全连接层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在整个卷积神经网络中起到“分类器”的作用。如果说卷积层、池化层和激活函数层等操作是将原始数据映射到隐层特征空间的话，全连接层则起到将学到的“分布式特征表示”映射到样本标记空间的作用。全连接层(Fully Connected Layers)是由许多神经元组合形成的平面二维结构，一般放在整个网络或者局部网络模块的最后层，如图4所示。全连接层中的每一个神经元都与前层所有神经元连接，以此将前层已经学习到的所有具有类别区分性的局部信息整合，并将其映射到标本标记空间中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAN(Generative Adversarial Networks):生成式对抗网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一种深度学习模型，是近年来复杂分布上无监督学习最具前景的方法之一。模型通过框架中（至少）两个模块：生成模型（Generative Model）和判别模型（Discriminative Model）的互相博弈学习产生相当好的输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBDT(Gradient Boosting Decison Tree):梯度提升树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCN(Graph Convolutional Network):图卷积神经网络</t>
+  </si>
+  <si>
+    <t>Generative Model：生成模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是监督学习的一种，过程中由数据 (特征X和不同的标记组合Y) 学习联合概率分布(P(Y|X))，求出条件概率分布用作模型预测。如朴素贝叶斯(NB)，隐马尔科夫模型(HMM)等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMM(Gaussian Mixed Model):高斯混合模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指的是多个高斯分布函数的线性组合，理论上GMM可以拟合出任意类型的分布，通常用于解决同一集合下的数据包含多个不同的分布的情况（或者是同一类分布但参数不一样，或者是不同类型的分布，比如正态分布和伯努利分布）。用EM算法估计GMM的参数分两步，第一步要先求出要估计参数的粗略值，第二步使用第一步的值最大化似然函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grayscale Testing：灰度测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰度测试 ，就是在某项产品或应用正式发布前，选择特定人群试用，逐步扩大其试用者数量，以便及时发现和纠正其中的问题，由“灰”到“黑 ”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High-pass Filter:高通滤波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一种过滤方式，规则为高频信号能正常通过，而低于设定临界值的低频信号则被阻隔、减弱。但是阻隔、减弱的幅度则会依据不同的频率以及不同的滤波程序（目的）而改变。它有的时候也被叫做低频去除过滤（low-cut filter）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM(Hidden Markov Model):隐马尔可夫模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是统计模型，它用来描述一个含有隐含未知参数的马尔可夫过程。其难点是从可观察的参数中确定该过程的隐含参数。然后利用这些参数来作进一步的分析，例如模式识别。是在被建模的系统被认为是一个马尔可夫过程与未观测到的（隐藏的）的状态的统计马尔可夫模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOG(Histogram of Oriented Gradient):方向梯度直方图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征是一种在计算机视觉和图像处理中用来进行物体检测的特征描述子它通过计算和统计图像局部区域的梯度方向直方图来构成特征。Hog 特征结合 SVM 分类器已经被广泛应用于图像识别中,尤其在行人检測中获得了极大的成功。需要提醒的是, HOG + SVM 进行行人检测的方法是法国研究人员 Dalal 在2005的 CVPR 上提出的,而如今虽然有很多行人检测算法不断提出,但基本都是以 HOG + SVM 的思路为主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDBC(Jave Database Connectivity)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java数据库互联，一种API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kalman Filtering: 卡尔曼滤波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔曼滤波（Kalman filtering）是一种利用线性系统状态方程，通过系统输入输出观测数据，对系统状态进行最优估计的算法。由于观测数据中包括系统中的噪声和干扰的影响，所以最优估计也可看作是滤波过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keras</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keras是一个由Python编写的开源人工神经网络库，可以作为Tensorflow、Microsoft-CNTK和Theano的高阶应用程序接口，进行深度学习模型的设计、调试、评估、应用和可视化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KDE(Kernel Density Estimaiton):核密度估计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是在概率论中用来估计未知的密度函数，属于非参数检验方法之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG(Knowledge Graph)：知识图谱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low-pass Filter: 低通滤波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一种过滤方式，规则为低频信号能正常通过，而超过设定临界值的高频信号则被阻隔、减弱。但是阻隔、减弱的幅度则会依据不同的频率以及不同的滤波程序（目的）而改变。它有的时候也被叫做高频去除过滤（high-cut filter）或者最高去除过滤（treble-cut filter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRN(Local Response Normalization):局部响应归一化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是深度学习训练时的一种提高准确度的技术方法。跟激活函数是有区别的，一般是在激活和池化之后的一种数据处理方法。第一次在AlexNet中被提出，通过实验证明可以提高模型泛化能力，但效果非常有限，以至于后期被使用场景很少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSH(Locality Sensitive Hashing):局部敏感哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要运用到高维海量数据的快速近似查找，近似查找便是比较数据点之间的距离或者是相似度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSTM(Long Short-Term Memory):长短期记忆网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一种时间循环神经网络，是为了解决一般的RNN（循环神经网络）存在的长期依赖问题而专门设计出来的，所有的RNN都具有一种重复神经网络模块的链式形式。在标准RNN中，这个重复的结构模块只有一个非常简单的结构，例如一个tanh层。由于独特的设计结构，LSTM适合于处理和预测时间序列中间隔和延迟非常长的重要事件。作为非线性模型，LSTM可作为复杂的非线性单元用于构造更大型深度神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES(Manufacturing Execution System):生产执行系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES是面向车间现场生产制造过程的数字化管理，提供从接收生产计划到制成最终产品全过程的生产活动实现优化的信息，重点削减不会产生附加值的活动，从而推动有效的工厂运行，有效提升现场效率，减少在制品，降低制造成本。用一句话概括，MES系统提供生产制造过程管理服务，协调人、机、料、法、环、测六要素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mutual Information:互信息</t>
+  </si>
+  <si>
+    <t>是信息论里一种有用的信息度量，它可以看成是一个随机变量中包含的关于另一个随机变量的信息量，或者说是一个随机变量由于已知另一个随机变量而减少的不肯定性</t>
+  </si>
+  <si>
+    <t>NER(Named Entity Recognition): 命名实体识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又称作“专名识别”，是指识别文本中具有特定意义的实体，主要包括人名、地名、机构名、专有名词等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NLP(Natural Language Processing)：自然语言处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理自然语言的关键是要让计算机“理解”自然语言，所以自然语言处理又叫做自然语言理解(NLU-Natural Language Understanding)，也称为计算语言学(Computational Linguistics。一方面它是语言信息处理的一个分支，另一方面它是人工智能(AI, Artificial Intelligence)的核心课题之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nonparametric Tests：非参数检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是统计分析方法的重要组成部分，它与参数检验共同构成统计推断的基本内容。非参数检验是在总体方差未知或知道甚少的情况下，利用样本数据对总体分布形态等进行推断的方法。由于非参数检验方法在推断过程中不涉及有关总体分布的参数，因而得名为“非参数”检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageRank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageRank是Google用于用来标识网页的等级/重要性的一种方法，是Google用来衡量一个网站的好坏的唯一标准</t>
+  </si>
+  <si>
+    <t>Parameteric Tests：参数检验</t>
+  </si>
+  <si>
+    <t>全称参数假设检验，是指对参数平均值、方差进行的统计检验。参数检验是推断统计的重要组成部分。当总体分布已知（如总体为正态分布），根据样本数据对总体分布的统计参数进行推断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pooling Layer：池化层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>池化层夹在连续的卷积层中间， 用于压缩数据和参数的量，减小参数矩阵的尺寸，进而减小过拟合。池化层的主要作用：①不变性(invariance):这种不变性包括平移-translation，旋转-rotation，尺度-scale；②保留主要特征的同时减少参数（类似降维）和计算量，防止过拟合，从而提高模型的泛化能力。池化操作是一种下采样的过程，一般连接在卷积层后，将输入数据划分为矩形区域并计算每个区域的最大值来执行下采样。常见的池化操作可分为最大池化和平均池化，即以矩形区域数据的最大值、平均值作为该区域的输出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poisson Distribution：泊松分布</t>
+  </si>
+  <si>
+    <t>泊松分布的参数λ是单位时间(或单位面积)内随机事件的平均发生次数。泊松分布适合于描述单位时间内随机事件发生的次数</t>
+  </si>
+  <si>
+    <t>PyTorch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一个开源的机器学习库。由Facebook人工智能研究院（FAIR）基于Torch推出了PyTorch。它是一个基于Python的可续计算包，提供两个高级功能：1-具有强大的GPU加速的张量计算（如NumPy）；2-包含自动求导系统的深度神经网络</t>
+  </si>
+  <si>
+    <t>R-CNN(Region-Convolutional Neural Network), 区域卷积神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-CNN的全称是Region-CNN，是第一个成功将深度学习应用到目标检测上的算法。R-CNN基于卷积神经网络(CNN)，线性回归，和支持向量机(SVM)等算法，实现目标检测技术。传统的目标检测方法大多以图像识别为基础。一般可以在图片上使用穷举法选出所所有物体可能出现的区域框，对这些区域框提取特征并使用图像识别方法分类， 得到所有分类成功的区域后,通过非极大值抑制(Non-Maximum Suppression)输出结果。R-CNN遵循传统目标检测的思路，同样采用提取框，对每个框提取特征、图像分类、 非极大值抑制四个步骤进行目标检测。只不过在提取特征这一步，将传统的特征(如 SIFT、HOG 特征等)换成了深度卷积网络提取的特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReLU(Rectified Linear Unit):线性整流函数，或修正线性单元</t>
+  </si>
+  <si>
+    <t>是一种人工神经网络中常用的激活函数（activation function），通常指代以斜坡函数及其变种为代表的非线性函数</t>
+  </si>
+  <si>
+    <t>RFM(Recency Frequency Monetary):最近一次消费+消费频率+消费金额</t>
+  </si>
+  <si>
+    <t>RFM模型是衡量客户价值和客户创利能力的重要工具和手段。在众多的客户关系管理(CRM)的分析模式中，RFM模型是被广泛提到的。该机械模型通过一个客户的近期购买行为、购买的总体频率以及花了多少钱3项指标来描述该客户的价值状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN(Recurrent Neural Network):循环神经网络</t>
+  </si>
+  <si>
+    <t>是一类以序列（sequence）数据为输入，在序列的演进方向进行递归（recursion）且所有节点（循环单元）按链式连接的递归神经网络（recursive neural network）。循环神经网络在自然语言处理（NLP），例如语音识别、语言建模、机器翻译等领域有应用，也被用于各类时间序列预报</t>
+  </si>
+  <si>
+    <t>Self-Attention</t>
+  </si>
+  <si>
+    <t>在非seq2seq任务中，比如文本分类，或者其他分类问题，会通过self-attention来使用attention。这个方法思想很简单，而且计算成本相对来说不高，强烈推荐</t>
+  </si>
+  <si>
+    <t>Seq2Seq: 一种序列模型</t>
+  </si>
+  <si>
+    <r>
+      <t>Seq2Seq模型是输出的长度不确定时采用的模型，这种情况一般是在机器翻译的任务中出现，常用语机器翻译、人机对话、聊天机器人等场景。seq2seq属于encoder-decoder结构的一种，这里看看常见的encoder-decoder结构，基本思想就是利用两个RNN，一个RNN作为encoder，另一个RNN作为decoder。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>encoder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负责将输入序列压缩成指定长度的向量，这个向量就可以看成是这个序列的语义，这个过程称为编码，获取语义向量最简单的方式就是直接将最后一个输入的隐状态作为语义向量C。也可以对最后一个隐含状态做一个变换得到语义向量，还可以将输入序列的所有隐含状态做一个变换得到语义变量。而</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decoder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>则负责根据语义向量生成指定的序列，这个过程也称为解码，如下图，最简单的方式是将encoder得到的语义变量作为初始状态输入到decoder的RNN中，得到输出序列。可以看到上一时刻的输出会作为当前时刻的输入，而且其中语义向量C只作为初始状态参与运算，后面的运算都与语义向量C无关。由于Attention机制的提出，当前说的seq2seq都是指RNN+attention的结合</t>
+    </r>
+  </si>
+  <si>
+    <t>SIFT(Scale Invariant Feature Transform):尺度不变特征变换</t>
+  </si>
+  <si>
+    <t>是用于图像处理领域的一种描述。这种描述具有尺度不变性，可在图像中检测出关键点，是一种局部特征描述子。SIFT在数字图像的特征描述方面当之无愧可称之为最红最火的一种，许多人对SIFT进行了改进，诞生了SIFT的一系列变种。SIFT特征是基于物体上的一些局部外观的兴趣点而与影像的大小和旋转无关。对于光线、噪声、微视角改变的容忍度也相当高。使用SIFT特征描述对于部分物体遮蔽的侦测率也相当高，甚至只需要3个以上的SIFT物体特征就足以计算出位置与方位。在现今的电脑硬件速度下和小型的特征数据库条件下，辨识速度可接近即时运算。SIFT特征的信息量大，适合在海量数据库中快速准确匹配</t>
+  </si>
+  <si>
+    <t>Softmax：对向量进行Softmax归一化</t>
+  </si>
+  <si>
+    <t>经过Softmax之后，连续数值转化为相对概率（和为1，即被理解为归一化的过程），输出表征了不同类别之间的相对概率。Softmax regression，又被称作多项逻辑回归(multinomial logistic regression)，是逻辑回归在处理多类别任务上的推广</t>
+  </si>
+  <si>
+    <t>Spectral Clustering:谱聚类</t>
+  </si>
+  <si>
+    <t>是一种针对图结构的聚类方法，它跟其他聚类算法的区别在于，他将每个点都看作是一个图结构上的点，所以，判断两个点是否属于同一类的依据就是，两个点在图结构上是否有边相连，可以是直接相连也可以是间接相连</t>
+  </si>
+  <si>
+    <t>Supervised Learning：监督学习</t>
+  </si>
+  <si>
+    <t>基于已知类别的样本来训练和优化分类器参数，来使其分类器满足性能的过程。监督学习方法包含生成方法和判别方法，分别对应生成模型（Generative Model）和判别模型（Discriminative Model）。形象举例解释区别：生成模型：要确定一个羊是山羊还是绵羊，用判别模型的方法是从历史数据中学习到模型，然后通过提取这只羊的特征来预测出这只羊是山羊的概率，是绵羊的概率；判别模型：利用生成模型是根据山羊的特征首先学习出一个山羊的模型，然后根据绵羊的特征学习出一个绵羊的模型，然后从这只羊中提取特征，放到山羊模型中看概率是多少，在放到绵羊模型中看概率是多少，哪个大就是哪个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tensor:张量</t>
+  </si>
+  <si>
+    <t>张量是一个多线性函数或多重现性映射。是一个定义在一些向量空间和一些对偶空间的笛卡尔积上的多重线性映射。张量是一个可用来表示在一些矢量、标量和其他张量之间的线性关系的多线性函数。0阶张量 - 标量(Scalar)；1阶张量 - 矢量(Vector)；2阶张量 - 矩阵(Matrix)</t>
+  </si>
+  <si>
+    <t>Text Classification:文本分类</t>
+  </si>
+  <si>
+    <t>文本分类用电脑对文本集(或其他实体或物件)按照一定的分类体系或标准进行自动分类标记。它根据一个已经被标注的训练文档集合, 找到文档特征和文档类别之间的关系模型, 然后利用这种学习得到的关系模型对新的文档进行类别判断。文本分类从基于知识的方法逐渐转变为基于统计和机器学习的方法。文本分类一般包括了文本的表达、分类器的选择与训练、分类结果的评价与反馈等过程，其中文本的表达又可细分为文本预处理、索引和统计、特征抽取等步骤。文本分类系统的总体功能模块为：1.预处理：将原始预料格式化为统一格式，便于后续的统一处理 2.索引：将文档分解为基本处理单元，同时降低后续处理的开销 3.统计：词频统计，项(单词、概念)与分类的相关概率 4.特征抽取：从文档中抽取反映文档主题的特征 5.分类器：分类器的训练（朴素贝叶斯，支持向量机，k近邻，决策树） 6.评价：分类器的测试结果分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextRank:属于与TF-IDF同类算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过词之间的相邻关系构建网络，然后用PageRank迭代计算每个节点的rank值，排序rank值即可得到关键词。TextRank的迭代公式仅比PageRank多了一个权重项Wji，用来表示两个节点之间的边连接有不同的重要程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF-IDF(Term Frequency–Inverse Document Frequency):词频-逆文本频率</t>
+  </si>
+  <si>
+    <r>
+      <t>信息检索领域非常重要的搜索词重要性度量，一种用于信息检索与数据挖掘的常用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加权技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。TF-IDF是一种统计方法，用以评估一个词对一个文件集或语料库的重要程度。字词的重要性随着它在文件中出现的次数成正比增加，但会随着它在语料库中的出现的频率成反比下降。TF-IDF加权的各种形式常被搜索引擎应用，作为文件与用户查询之间相关程度的度量或评级。除了TF-IDF以外，因特网上的搜索引擎还会使用基于链接分析的评级方法，以确定文件在搜寻结果中出现的顺序</t>
+    </r>
+  </si>
+  <si>
+    <t>tkinter</t>
+  </si>
+  <si>
+    <t>python前端框架，完成后用pyinstall打包封装成本地app</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>Transformer是第一个用纯attention搭建的模型，不仅计算速度更快，在翻译任务上获得了更好的结果，也为后续的BERT模型做了铺垫。Google提出了解决Seq2Seq问题的Transformer模型，用全attention的结构代替了LSTM，在翻译任务上取得了更好的成绩</t>
+  </si>
+  <si>
+    <t>Whitebox Testing：白盒测试</t>
+  </si>
+  <si>
+    <t>通过检查软件内部的逻辑结构，对软件中的逻辑路径进行覆盖测试。在程序不同地方设立检查点，检查程序的状态，以确定实际运行状态与预期状态是否一致</t>
+  </si>
+  <si>
+    <t>Word2Vec:词向量</t>
+  </si>
+  <si>
+    <t>Word2vec本质上是一种降维操作——把词语从one-hot encoder 形式的表示降维到 Word2vec 形式的表示。举个简单例子，判断一个词的词性，是动词还是名词。用机器学习的思路，我们有一系列样本(x,y)，这里 x 是词语，y 是它们的词性，我们要构建 f(x)→y 的映射，但这里的数学模型 f（比如神经网络、SVM）只接受数值型输入，而NLP里的词语，是人类的抽象总结，是符号形式的（比如中文、英文、拉丁文等等），所以需要把他们转换成数值形式，或者说——嵌入到一个数学空间里，这种嵌入方式，就叫词嵌入（Word-Embedding)，而Word2vec，就是词嵌入（ Word-Embedding) 的一种</t>
+  </si>
+  <si>
+    <t>WT(Wavelet Transform):小波变换</t>
+  </si>
+  <si>
+    <t>小波变换（Wavelet Transform，WT）是一种新的变换分析方法，它继承和发展了短时傅立叶变换局部化的思想，同时又克服了窗口大小不随频率变化等缺点，能够提供一个随频率改变的“时间-频率”窗口，是进行信号时频分析和处理的理想工具。它的主要特点是通过变换能够充分突出问题某些方面的特征，能对时间（空间）频率的局部化分析，通过伸缩平移运算对信号（函数)逐步进行多尺度细化，最终达到高频处时间细分，低频处频率细分，能自动适应时频信号分析的要求，从而可聚焦到信号的任意细节，解决了Fourier变换的困难问题，成为继Fourier变换以来在科学方法上的重大突破</t>
+  </si>
+  <si>
+    <t>YOLO(You Only Look Once)</t>
+  </si>
+  <si>
+    <t>YOLO把目标检测问题简化成了一个回归问题，直接从图像像素出发，去得到框和分类概率。这也是为了特别突出YOLO区别于两阶段算法的特点，从名字就可以感受到，YOLO算法速度很快，事实上也是如此。YOLO用整个图片的特征去预测每一个边界框。它还同时预测一个图像在所有类中的所有边界框。YOLO先把整个图片划分成S*S个方格，如果一个物体的中心正好落在一个方格中，那么这个方格就负责来预测物体。每一个方格预测出B个边界框和这些框的置信分数</t>
+  </si>
+  <si>
+    <t>神经网络模型。AlexNet将LeNet的思想发扬光大，把CNN的基本原理应用到了很深很宽的网络中。AlexNet主要用到的新技术点：ReLU：成功使用ReLU作为CNN的激活函数，并验证其效果在较深的网络超过了Sigmoid，成功解决了Sigmoid在网络较深时的梯度弥散问题；Dropout：训练时使用Dropout随机忽略一部分神经元，以避免模型过拟合。Dropout虽有单独的论文论述，但是AlexNet将其实用化，通过实践证实了它的效果。在AlexNet中主要是最后几个全连接层使用了Dropout。最大池化：在CNN中使用重叠的最大池化。此前CNN中普遍使用平均池化，AlexNet全部使用最大池化，避免平均池化的模糊化效果。并且AlexNet中提出让步长比池化核的尺寸小，这样池化层的输出之间会有重叠和覆盖，提升了特征的丰富性。LRN：提出了LRN层，对局部神经元的活动创建竞争机制，使得其中响应比较大的值变得相对更大，并抑制其他反馈较小的神经元，增强了模型的泛化能力。CUDA加速：使用CUDA加速深度卷积网络的训练，利用GPU强大的并行计算能力，处理神经网络训练时大量的矩阵运算。数据增强：使用了数据增强后可以大大减轻过拟合，提升泛化能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.业务理解（business understanding）：确定目标，明确分析需求。2.数据理解（data understanding）:收集原始数据，描述数据，探索数据，检验数据质量。3.数据准备（data preparation）:选择数据，清洗数据，构造数据，整合数据，格式化数据。4.建立模型（modeling）：选择建模参数，参数调优，生成测试计划，构建模型。5.评估模型（evaluation）：对模型进行较为全面的评价，评价结果，重申过程。6.部署（deployment）：分析结果应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做买卖跟其他任何事情一样，只要你去做，慢慢就上手了。当然悟性很重要，任何商业都有其模式，秘密就藏在模式里。墨菲定律：如果一件事情可能往坏的方向发展，那就肯定会往最坏的方向发展。人还以为自己是天才，终于寻到属于脑袋的表演舞台。哪知南柯一梦，醒来时发现我早已身陷骗局!快速累积的巨额利润化为乌有，就连我辛苦卖书攒下的本钱也打了水漂。疯狂的世道，疯狂的人,进行着一场充满讽刺意味的游戏!哪里有真实?瞧，我整天买卖的大豆小麦黄金白银，它们都在哪里?我连毛也没摸到一根! 实物变成符号，商品化为合约，华尔街用这一切虚构出投资世界使我之类投机者陷人虚无缥缈、不着边际的梦境。真相是颠倒的，所以你永远看不见真相。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACID, 数据库标准设计保证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atomicity, Consistency, Isolation, Durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马尔可夫模型（Markov Model）</t>
+  </si>
+  <si>
+    <t>是一种统计模型，广泛应用在语音识别，词性自动标注，音字转换，概率文法等各个自然语言处理等应用领域。经过长期发展，尤其是在语音识别中的成功应用，使它成为一种通用的统计工具.它一直被认为是实现快速精确的语音识别系统的最成功的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威尔逊得分(Wilson Score)排序算法</t>
+  </si>
+  <si>
+    <t>是对质量进行排序，评论中含有好评还有差评，综合考虑评论数与好评率，得分越高，质量越高。 https://www.jianshu.com/p/4d2b45918958</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL开窗函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开窗函数/分析函数：over()。开窗函数也叫分析函数，有两类：一类是聚合开窗函数，一类是排序开窗函数。开窗函数的调用格式为：函数名(列名) OVER(partition by 列名 order by列名) 。聚合函数对一组值执行计算并返回单一的值，如sum()，count()，max()，min()， avg()等，这些函数常与group by子句连用。除了 COUNT 以外，聚合函数忽略空值。但有时候一组数据只返回一组值是不能满足需求的，如我们经常想知道各个地区的前几名、各个班或各个学科的前几名。这时候需要每一组返回多个值。用开窗函数解决这类问题非常方便。开窗函数和聚合函数的区别：（1）SQL 标准允许将所有聚合函数用作开窗函数，用OVER 关键字区分开窗函数和聚合函数。（2）聚合函数每组只返回一个值，开窗函数每组可返回多个值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scrapy爬虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scrapy是一个为了爬取网站数据，提取结构性数据而编写的应用框架。 可以应用在包括数据挖掘，信息处理或存储历史数据等一系列的程序中。其最初是为了 页面抓取 (更确切来说, 网络抓取 )所设计的， 也可以应用在获取API所返回的数据(例如 Amazon Associates Web Services ) 或者通用的网络爬虫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离散函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义域是离散集合的函数，称为离散函数。如果再苛刻一点，定义域是自然数集（0,1,2,3...），值域是实数域(包括有理数和无理数)，那么这样的函数就是离散数值函数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n-gram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-Gram是一种基于统计语言模型的算法。它的基本思想是将文本里面的内容按照字节进行大小为N的滑动窗口操作，形成了长度是N的字节片段序列。每一个字节片段称为gram，对所有gram的出现频度进行统计，并且按照事先设定好的阈值进行过滤，形成关键gram列表，也就是这个文本的向量特征空间，列表中的每一种gram就是一个特征向量维度。该模型基于这样一种假设，第N个词的出现只与前面N-1个词相关，而与其它任何词都不相关，整句的概率就是各个词出现概率的乘积。这些概率可以通过直接从语料中统计N个词同时出现的次数得到。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coverage机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ACL2017上的一篇文章，提出了coverage机制，目的是为了解决seq2seq模型生成句子中经常有重复片段的现象。https://blog.csdn.net/thormas1996/article/details/81536977 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将结构化数据和文本信息分类分别保存成三元组格式，构建各个实体之间的相关信息的知识图谱，涉及到命名实体识别和实体间的匹配算法。知识图谱（Knowledge Graph），在图书情报界称为知识域可视化或知识领域映射地图，是显示知识发展进程与结构关系的一系列各种不同的图形，用 可视化技术描述知识资源及其载体，挖掘、分析、 构建、绘制和显示知识及它们之间的相互联系。 知识图谱是通过将应用数学、 图形学、信息可视化技术、 信息科学等学科的理论与方法与计量学引文分析、共现分析等方法结合，并利用可视化的图谱形象地展示学科的核心结构、发展历史、 前沿领域以及整体知识架构达到多学科融合目的的现代理论。它能为学科研究提供切实的、有价值的参考。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neo4j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识图谱由于其数据包含实体、属性、关系等，常见的关系型数据库诸如MySQL之类不能很好的体现数据的这些特点，因此知识图谱数据的存储一般是采用图数据库（Graph Databases）。而Neo4j是其中最为常见的图数据库。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReID(Re-identification)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其定义是利用算法，在图像库中找到要搜索的目标的技术，所以它是属于图像检索的一个子问题。在执法部门的工作中，目标的识别和定位是及其关键的一步，然而现有的监控部署下，这个关键步骤几乎是靠着人力完成的。在这个讲究数据和效率的时代，通过人工观察监控录像查找结果显然存在着很大的资源浪费以及效率的低下。另外，由于摄像头的分辨率等硬件缺陷，很难得到清晰的人身图像，因此，已经大力推广的人脸识别技术已不再适用此场景。由于传统人工查询的不便性以及人脸识别的无法应用，研究者思考如何发明一项更合适的技术来取代人脸识别，能在监控领域以机器代替人力分析呢？故此，行人重识别（P-edestrian Re-identification，ReID）的研究也应随之展开。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IoU(Intersection over Union)，深度学习中检测物体准确度的一个标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> IoU是一种测量在特定数据集中检测相应物体准确度的一个标准。IoU是一个简单的测量标准，只要是在输出中得出一个预测范围(bounding boxex)的任务都可以用IoU来进行测量</t>
+  </si>
+  <si>
+    <t>Numpy并行计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python因为有GIL锁，因此多线程也只能使用一个处理器，但是numpy是例外。GIL(全局解释器锁)。numpy本身的矩阵运算(array operations)可以绕过GIL，因为numpy内部是用C写的，不经过python解释器，因此它本身的矩阵运算(array operations)都可以使用多核，此外它内部还用了BLAS(the Basic Linear Algebra Subroutines)，因此可以进一步优化计算速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口（Sliding Window）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在处理时间序列预测或者时间序列分类任务的时候，经常会遇到“滑动窗口（sliding window）”的概念，包括在之前写的二十几篇有关时间序列预测或者分类的文章中或多或少也反复提及这个概念。与卷积神经网络处理图像的原理类似，在序列数据中“滑动窗口”用来截取序列片段，从而将原始数据重塑为指定长度的样本，以便模型的建模。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM(Factorization Machine),因子分解机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM 模型最早由 Steffen Rendle 在2010年提出，解决了稀疏数据场景下的特征组合问题，在广告、推荐等领域被广泛使用。FM 模型简单而且效果好，可以作为业务初期快速取得收益，为后续持续迭代提供一个较强的 baseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepFM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是由华为诺亚方舟实验室在 2017 年提出的模型。由于DeepFM算法有效的结合了因子分解机与神经网络在特征学习中的优点：同时提取到低阶组合特征与高阶组合特征，所以越来越被广泛使用。在DeepFM中，FM算法负责对一阶特征以及由一阶特征两两组合而成的二阶特征进行特征的提取；DNN算法负责对由输入的一阶特征进行全连接等操作形成的高阶特征进行特征的提取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBDT是boosting集成模型系列的杰出代表。GBDT与提升树的区别就是GBDT采用的损失函数可以有很多形式，采用负梯度求解残差。GBDT采用了多模型集成的策略，针对残差进行拟合，进而降低模型的偏差和方差。Y=f(x)+residual. (其中residual被称为残差。我们评价一个模型的预测能力，一般考察残差的两个方面：（1）偏差，即与真实值分布的偏差大小；（2）方差，体现模型预测能力的稳定性，或者说鲁棒性)集成模型（Ensemble Model）不是一种具体的模型，而是一种模型框架，它采用的是“三个臭皮匠顶个诸葛亮”的思想。集成模型的一般做法是，将若干个模型(俗称“弱学习器”, weak learner，基础模型，base model)按照一定的策略组合起来，共同完成一个任务——特定的组合策略，可以帮助集成模型降低预测的偏差或者方差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机森林(Random Forest)和梯度提升树(GBDT)的差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)随机森林采用的bagging思想，而GBDT采用的boosting思想。这两种方法都是Bootstrap思想的应用，Bootstrap是一种有放回的抽样方法思想。虽然都是有放回的抽样，但二者的区别在于：Bagging采用有放回的均匀取样，而Boosting根据错误率来取样（Boosting初始化时对每一个训练样例赋相等的权重1／n，然后用该算法对训练集训练t轮，每次训练后，对训练失败的样例赋以较大的权重），因此Boosting的分类精度要优于Bagging。Bagging的训练集的选择是随机的，各训练集之间相互独立，弱分类器可并行，而Boosting的训练集的选择与前一轮的学习结果有关，是串行的。(2)组成随机森林的树可以是分类树，也可以是回归树；而GBDT只能由回归树组成。(3)组成随机森林的树可以并行生成；而GBDT只能是串行生成。(4)对于最终的输出结果而言，随机森林采用多数投票等；而GBDT则是将所有结果累加起来，或者加权累加起来。(5)随机森林对异常值不敏感；GBDT对异常值非常敏感。(6)随机森林对训练集一视同仁；GBDT是基于权值的弱分类器的集成。(7)随机森林是通过减少模型方差提高性能；GBDT是通过减少模型偏差提高性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独热编码（One-Hot）,一种数据预处理的技术手段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one-hot编码是将类别变量转换为机器学习算法中容易处理的一种形式。在使用one-hot编码中，我们可以将离散特征的取值扩展到欧式空间，在机器学习中，我们的研究范围就是在欧式空间中，首先这一步，保证了能够适用于机器学习中；而；另外了对于one-hot处理的离散的特征的某个取值也就对应了欧式空间的某个点！在统计机器学习算法中的回归，分类这些问题中，特征之间距离的计算或相似度计算非常重要，比如大家常用的k-means，而我们常用的这些计算都在欧式空间中进行相似度计算。换句话说，就是我上面说的研究范围在欧式空间，保证了one-hot编码的成立！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所谓的类别不平衡问题指的是数据集中各个类别的样本数量极不均衡。影响：简单来讲，样本不平衡会使得我们的分类模型存在很严重的偏向性，但是从一些常用的指标上又无法看出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样本不均衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从数据角度解决样本不均衡问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从算法角度解决样本不均衡问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）扩大数据集。当遇到类别不均衡问题时，首先应该想到，是否可能再增加数据（一定要有小类样本数据），更多的数据往往战胜更好的算法。因为机器学习是使用现有的数据多整个数据的分布进行估计，因此更多的数据往往能够得到更多的分布信息，以及更好分布估计。即使再增加小类样本数据时，又增加了大类样本数据，也可以使用放弃一部分大类数据（即对大类数据进行欠采样）来解决。（2）数据集重采样。可以使用一些策略该减轻数据的不平衡程度。该策略便是采样(sampling)，主要有两种采样方法来降低数据的不平衡性。对小类的数据样本进行采样来增加小类的数据样本个数，即过采样（over-sampling ，采样的个数大于该类样本的个数）。对大类的数据样本进行采样来减少该类数据样本的个数，即欠采样（under-sampling，采样的次数少于该类样本的个素）。考虑对大类下的样本（超过1万、十万甚至更多）进行欠采样，即删除部分样本；考虑对小类下的样本（不足1为甚至更少）进行过采样，即添加部分样本的副本；考虑尝试随机采样与非随机采样两种采样方法；考虑对各类别尝试不同的采样比例，比一定是1:1，有时候1:1反而不好，因为与现实情况相差甚远；考虑同时使用过采样与欠采样。（3）人工产生数据样本。一种简单的人工样本数据产生的方法便是，对该类下的所有样本每个属性特征的取值空间中随机选取一个组成新的样本，即属性值随机采样。你可以使用基于经验对属性值进行随机采样而构造新的人工样本，或者使用类似朴素贝叶斯方法假设各属性之间互相独立进行采样，这样便可得到更多的数据，但是无法保证属性之前的线性关系（如果本身是存在的）。有一个系统的构造人工数据样本的方法SMOTE(Synthetic Minority Over-sampling Technique)。SMOTE是一种过采样算法，它构造新的小类样本而不是产生小类中已有的样本的副本，即该算法构造的数据是新样本，原数据集中不存在的。该基于距离度量选择小类别下两个或者更多的相似样本，然后选择其中一个样本，并随机选择一定数量的邻居样本对选择的那个样本的一个属性增加噪声，每次处理一个属性。这样就构造了更多的新生数据。具体可以参见原始论文。 这里有SMOTE算法的多个不同语言的实现版本：Python: UnbalancedDataset模块提供了SMOTE算法的多种不同实现版本，以及多种重采样算法。R: DMwR package。Weka: SMOTE supervised filter。（4）基于异常检测的方式。我们可以从不同于分类的角度去解决数据不均衡性问题，我们可以把那些小类的样本作为异常点(outliers)，因此该问题便转化为异常点检测(anomaly detection)与变化趋势检测问题(change detection)。异常点检测即是对那些罕见事件进行识别。如通过机器的部件的振动识别机器故障，又如通过系统调用序列识别恶意程序。这些事件相对于正常情况是很少见的。变化趋势检测类似于异常点检测，不同在于其通过检测不寻常的变化趋势来识别。如通过观察用户模式或银行交易来检测用户行为的不寻常改变。将小类样本作为异常点这种思维的转变，可以帮助考虑新的方法去分离或分类样本。这两种方法从不同的角度去思考，让你尝试新的方法去解决问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）尝试不同的分类算法。强烈建议不要对待每一个分类都使用自己喜欢而熟悉的分类算法。应该使用不同的算法对其进行比较，因为不同的算法适用于不同的任务与数据。具体可以参见“Why you should be Spot-Checking Algorithms on your Machine Learning Problems”。决策树往往在类别不均衡数据上表现不错。它使用基于类变量的划分规则去创建分类树，因此可以强制地将不同类别的样本分开。目前流行的决策树算法有：C4.5、C5.0、CART和Random Forest等。（2）对小类错分进行加权惩罚。对分类器的小类样本数据增加权值，降低大类样本的权值（这种方法其实是产生了新的数据分布，即产生了新的数据集，译者注），从而使得分类器将重点集中在小类样本身上。一个具体做法就是，在训练分类器时，若分类器将小类样本分错时额外增加分类器一个小类样本分错代价，这个额外的代价可以使得分类器更加“关心”小类样本。如penalized-SVM和penalized-LDA算法。对小样本进行过采样（例如含L倍的重复数据），其实在计算小样本错分cost functions时会累加L倍的惩罚分数。（3）从重构分类器的角度出发。仔细对你的问题进行分析与挖掘，是否可以将你的问题划分成多个更小的问题，而这些小问题更容易解决。你可以从这篇文章In classification, how do you handle an unbalanced training set?中得到灵感。例如：将你的大类压缩成小类；使用One Class分类器（将小类作为异常点）；使用集成方式，训练多个分类器，然后联合这些分类器进行分类；将二分类问题改成多分类问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测度（Measure）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测度，数学术语。数学上，测度（Measure）是一个函数，它对一个给定集合的某些子集指定一个数，这个数可以比作大小、体积、概率等等。传统的积分是在区间上进行的，后来人们希望把积分推广到任意的集合上，就发展出测度的概念，它在数学分析和概率论有重要的地位。</t>
+  </si>
+  <si>
+    <t>勒贝格积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勒贝格积分，是现代数学中的一个积分概念，它将积分运算扩展到任何测度空间中。在最简单的情况下，对一个非负值的函数的积分可以看作是求其函数图像与轴之间的面积。勒贝格积分则将积分运算扩展到其它函数，并且也扩展了可以进行积分运算的函数的范围。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎曼积分(Riemann Integral)，也就是所说的正常积分、定积分。在实分析中，由黎曼创立的黎曼积分首次对函数在给定区间上的积分给出了一个精确定义。黎曼积分在技术上的某些不足之处可由后来的黎曼－斯蒂尔杰斯积分和勒贝格积分得到修补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎曼积分(Riemann Integral)</t>
+  </si>
+  <si>
+    <t>盖洛普优势识别器，标志主题报告Top5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖洛普优势识别器，优势识别指南Top5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【1】 审慎。你为人谨慎，处世警觉。你是一个十分关注隐私的人。你深知世事难测。表面上一切井井有条，但深处危机四伏。你并不否认这些危险，相反，你把它们全部暴露在光天化日之下，逐一识别、评判，并最终消除。就此而言，你是一个十分认真的人，你对生活的态度是有所保留的。例如，你喜欢提前计划，以防不测。你谨慎地选择朋友，并避而不谈私事。你避免过度赞扬别人，以免被人误解。如果有人因为你不如别人热情洋溢而对你不满，那就随他的便。在你看来，生活不是一场取悦的竞赛，而更象一片雷场。其他人如果愿意尽可以不顾一切地跑过去，你则不然。你识别各种危险，判断其各自影响，然后小心地落脚，谨慎前行。【2】 交往。你的交往主题描述你对人际关系的态度。简言之，交往主题使你与熟人的关系更紧密。你未必羞于结交新人-事实上，你可能有其他主题，使你从结交新朋友中获得无穷乐趣-但你的确从保持密友交往中汲取巨大的欢乐和力量。你对亲密关系感觉自然。事实上，一旦与人结识，你就会有意深化关系。你对朋友敞开心扉。你同样希望成为他们的知己。你希望了解他们的情感、他们的目标、他们的恐惧和他们的梦想；你希望他们用相同的方式了解你。你深知这种密切关系不无风险-别人可能利用你-但你甘愿接受这种风险。对你来说，唯有真诚的关系才有价值。而检验关系是否真诚的唯一方式便是完全信任别人。你与别人分享的越多，你们共同承担的风险就越多。你们共同承担的风险越多，你们各自就越能证明彼此关爱是真诚的。这就是你建立真诚友谊的步骤，而你这样做完全是心甘情愿的。【3】 分析。你的分析主题向别人挑战：“证明它。告诉我为什么你的结论是对的。”面对此种质疑，某些人将发现他们自鸣得意的理论会萎缩和瓦解。而这恰恰是你的目的。你无意扼杀别人的观点，但你认定，他们的理论必须经得起检验。你自视客观和冷静。你喜欢数据，因为它们既不包含特定的价值观念，又没有特殊的目的，且未加修饰。有了数据的武装，你就寻找模式和关联。你想了解某些模式如何互相影响。你的问题是：它们如何组合？它们有什么结果？这个结果是否与所提出的理论或面临的情形相符？你将表层逐一剥开，直至揭示其中的根源。别人认为你思维逻辑并严谨。久而久之，他们就习惯于请你用你的严谨思维来剖析某些人的“异想天开”和“愚钝”。但愿你的分析不要表述得太尖刻。否则，如果“异想天开”的是他们自己，他们就会刻意回避你。【4】 个别。你的个别主题使你对每个人的与众不同之处兴趣盎然。你不能容忍一概而论或简单归类。你深知，如此大而划之会抹煞个人特点。相反，你关注个人差异。你本能地观察每个人的风格、动机、思维方法和交际方式，倾听其独一无二的生活经历。这一才干充分说明你与别人相处的方式。它说明为什么你能选择恰到好处的生日礼品；为什么你知道有人喜欢，而有人讨厌当众受表扬；为什么你能因人施教，对有的人手把手地教，而让别的人“自己琢磨”。由于你密切观察别人的优势，你就能使每个人真正人尽其才。你深知，通过告诉一个人你所看到的具体优势，他/她就会继续挖潜。这一个别主题还有助于你建立高效的团队。有人寻求完美无缺的团队结构或过程，而你的直觉告诉你优秀团队的秘诀在于使每个成员都能做他/她最擅长的工作。【5】 学习。你热爱学习。你最感兴趣的题目取决于你的其他主题和经历。但无论是什么题目，你总是受到学习过程的吸引。过程，而不是内容或结果，最使你兴奋。从无知到熟练的扎实而执著的进程使你精力倍增。入门的快感；初学者背诵或实践学到的内容；掌握一门新技术而日益增强的信心-这些学习的过程深深吸引着你。你对学习的激情促使你参加各种成人教程-太极拳、外语、钢琴、舞蹈或电脑培训班等等。它使你能在变动无常的环境中应付自如，无论是分配你完成一个应急项目，还是反复要求你在短时间内成为某个新题目的行家。学习主题并不一定意味着你力图成为某个专题的专家，或追求伴随某种专业或学术头衔的荣耀。相比之下，更重要的是学习的“路程”，而不是具体结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【1. 审慎 2. 交往 3. 分析 4. 个别 5. 学习】如何才能与众不同？【审慎】- 很有可能，您可能被视为严肃或认真的人。 您在处理事实或数字数据时能有条不紊、从容不迫，这或许会赢得很多人的欣赏。受自身优势影响，您有时需要时间思考别人说了什么，只有彻底地衡量信息后才会给出结论，而不是在当下立即做出反应。 您的实用性或许使某些类型的讨论变得更加清醒。偶尔，您加大您自己或其他人考虑“全局”的能力。 本能地，您可能考虑事情十分严肃。 您有可能会花时间权衡一个问题、观点或机会的利弊。 在做决定或变更计划时，您有时会很拖拉。 您或许比他人需要查看更多的证据、数据或信息。 一定程度上，您很难理解那些不收集资料、不加思索便匆忙行事的人。 因为您能细心思考问题，也许这使您能节省时间、减少错误或优化资源。 受自身天赋推动，您有时在他人有足够的资格时才会认同他们的成就。 也许因为您很少称赞他人，所以人们会感激您的赞美。 很大程度上，您 可能偏好拥有您可以感到安全地分享任何事的小范围的亲密朋友。【交往】- 受自身优势影响，您可能意识到每个人的利益、背景、动机、欲望、恐惧和工作作风不同。 也许您努力尊重每个人的独特气质和喜好。 了解特定他人的抱负或许给您对于每个人茁壮成长所需要的支持、培训、经验、伙伴关系或培养的类型的见解。 很有可能，您在明确自己或他人的绩效目标后偶尔感觉到自己和生活相融。 也许您喜欢和某类人交谈，他们似乎能够意识到自己的个人或职业目标。 本能地，您对具体个人的情绪和情感，可能有快速而确切的见解。 这种意识或许提高您作为一个培训人员、指导或导师的效率。 也许您的敏锐让您帮助一些人表达他们的想法或感觉。 出于天性，您可能喜欢与某些人分享自己的观点，如果您熟悉话题、问题或所涉及的人，他们会问您“你怎么认为？”，您可能愿意表达自己的想法。 您有时能找到某些具体事实，但是在提出建议或表达想法前，您会认真研究它们。 很大程度上，您有时通过充分的推理来辨别复杂局势、流程、事件或决策的基本要素。 也许您能用人们易于理解的方式描述某类复杂的事物。 偶尔您能引导他们注意具体的要点。 您或许避免将您知道的每个事实或细节告诉人们，以防他们无所适从。【分析】- 本能地，您可能有一个详尽的行动计划，展现了在未来几周、几个月、几年或几十年内要完成的事情。 有时计划的每个部分都完美流畅、环环相扣。 受自身天赋推动，您 他人可能认为您头脑冷静。 也许您运用理性来确定活动的优先顺序。 您有时希望确定计划，然后可以开始工作。 很大程度上，您或许倾向于利用推理来做决定而非鲁莽地行动。 您要求做事合乎道德标准、精确或恰当，也许这会迫使您在开始前检查项目、提议、想法或活动的各个方面。 受自身优势影响，您偶尔从理性合理的角度对待各种情况。 您也许喜欢按照自己的节奏思考某些问题。 某些人已经习惯于您的这种工作风格。 出于天性，您可能会意识到影响人群、项目、流程、决议或提议的一些因素。 也许您会思考一些事实，预测可能的结果或后果。 您或许能合理解释某些事情可能发生或不发生的原因。【个别】- 很大程度上，您 喜欢专注于让自己感兴趣的活动、问题、机会或学科。 每次获得新信息，您都认为自己能帮助需要这些信息的人。 本能地，您经常停止工作和思考来听别人对您讲的话。 您能耐心并主动地帮助他人解决问题、疏导负面情绪和验证想法。 出于天性，您或许比一些人更能体会其他人的需求或情绪。 您不必尝试，有时便能知道他们在面对生活中高兴、哀伤、挑战或单调时的想法和感受。 受自身天赋推动，您能够安慰各种类型的人。 您有办法消除困扰他们的困惑、噪音或混乱。 当此人足够放松并变得安静且平静时，或许您知道您已经成功了。 很有可能，您欢迎形形色色的人进入您的生活。 您总体上给予他们需要的帮助与支持。【学习】- 本能地，您在您感兴趣的特定领域显示出一些想要获得新知识或技能的征兆。 也许您依赖与智慧的人物交谈来弥补，即完善您在课堂或阅读中的所得。 很大程度上，您也许渴望新想法和知识。 有时您狂热地一头扎进您的阅读中。 其他时候您沉迷于书中。 也许您长时间钻研它的页面中包含的思想。 为什么？ 您或许希望吸收尽可能多的信息。 出于天性，您有时参加困难或高要求的课。 您或许旨在扩展您的知识或挑战您对某些事物的思考。 很有可能，您可能收集史实或文物，包括图片、工具、书籍、艺术品、信件或文件等等。 您也许会犹豫这些信息是否有用。 您对历史感兴趣可能是想回答自己的疑问，而没有其他目的。 您可能对历史及历史人物感兴趣。 在某种程度上，如果到处翻寻收集的史实和物品，未来便浮现在脑海中。 受自身优势影响，您可能希望获得某些知识和/或掌握特定技能。 由于您的思维活跃，按部就班地做事也许会让您感到厌烦。 您有时会自觉地努力收集事实、依据、数据或背景信息。 在某种程度上，您的努
+力推进了特殊项目、任务或行动计划。 观察、调查、学习或培训时，您或许会收集到许多信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与划分和层次聚类方法不同，它将簇定义为密度相连的点的最大集合，能够把具有足够高密度的区域划分为簇，并可在噪声的空间数据库中发现任意形状的聚类。基于密度的聚类算法的运行时间主要在寻找每个点的最近邻和密度计算，基于密度聚类算法是聚类中一个很重要的方式，但它应用于高维数据时，时间复杂度较高。所有的密度聚类算法都面临着同样的问题：如何尽可能的将ε半径缩小。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGBoost是一个优化的分布式梯度增强库，旨在实现高效，灵活和便携。它在 Gradient Boosting 框架下实现机器学习算法。XGBoost提供并行树提升（也称为GBDT，GBM），可以快速准确地解决许多数据科学问题。相同的代码在主要的分布式环境（Hadoop，SGE，MPI）上运行，并且可以解决数十亿个示例之外的问题。XGBoost是对梯度提升算法的改进，求解损失函数极值时使用了牛顿法，将损失函数泰勒展开到二阶，另外损失函数中加入了正则化项。训练时的目标函数由两部分构成，第一部分为梯度提升算法损失，第二部分为正则化项.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGBoost (eXtreme Gradient Boosting), 极致梯度提升。和GBDT的主要差异？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是一种基于GBDT的算法或者说工程实现。XGBoost的基本思想和GBDT相同，但是做了一些优化，比如二阶导数使损失函数更精准；正则项避免树过拟合；Block存储可以并行计算等。[XGBoost比GBDT好的地方]：二阶泰勒展开；节点分数惩罚正则；增益计算不同，gbdt是gini，xgb是优化推导公式。[XGBoost原始Paper内容：XGBoost是GB算法的高效实现，xgboost中的基学习器除了可以是CART（gbtree）也可以是线性分类器（gblinear）。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1). xgboost在目标函数中显示的加上了正则化项，基学习为CART时，正则化项与树的叶子节点的数量T和叶子节点的值有关；(2). GB中使用Loss Function对f(x)的一阶导数计算出伪残差用于学习生成fm(x)，xgboost不仅使用到了一阶导数，还使用二阶导数。做二阶泰勒展开：g为一阶导数，h为二阶导数；(3). 上面提到CART回归树中寻找最佳分割点的衡量标准是最小化均方差，xgboost寻找分割点的标准是最大化，lamda，gama与正则化项相关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>] xgboost与gdbt除了上述三点的不同，xgboost在实现时还做了许多优化：（1）在寻找最佳分割点时，考虑传统的枚举每个特征的所有可能分割点的贪心法效率太低，xgboost实现了一种近似的算法。大致的思想是根据百分位法列举几个可能成为分割点的候选者，然后从候选者中根据上面求分割点的公式计算找出最佳的分割点。（2）xgboost考虑了训练数据为稀疏值的情况，可以为缺失值或者指定的值指定分支的默认方向，这能大大提升算法的效率，paper提到50倍。（3）特征列排序后以块的形式存储在内存中，在迭代中可以重复使用；虽然boosting算法迭代必须串行，但是在处理每个特征列时可以做到并行。（4）按照特征列方式存储能优化寻找最佳的分割点，但是当以行计算梯度数据时会导致内存的不连续访问，严重时会导致cache miss，降低算法效率。paper中提到，可先将数据收集到线程内部的buffer，然后再计算，提高算法的效率。（5）xgboost 还考虑了当数据量比较大，内存不够时怎么有效的使用磁盘，主要是结合多线程、数据压缩、分片的方法，尽可能的提高算法的效率。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGBoost (eXtreme Gradient Boost) 极致梯度下降。是一个优化的分布式梯度增强库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCN (Deep Cross Network)，深度交叉网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是 Stanford &amp; Google 于 2017 年发表于 KDD 的工作。传统的 CTR 模型为了增强非线性表达能力, 需要构造特征组合, 虽然这些特征含义明确、可解释性强, 但通常需要大量的特征工程, 耗时耗力. 另一方面, DNN 模型具有强大的学习能力, 可以自动获取高阶的非线性特征组合, 然而这些特征通常是隐式的, 含义难以解释. 本文的亮点在于提出了一个 Cross Network, 可以显式并且自动地获取交叉特征; 此外, Cross Network 相比 DNN 显得更为轻量级,因此在表达能力上比 DNN 会逊色一些, 本文通过联合训练 Cross Network 与 DNN 来同时发挥二者的优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CF (Collaborative Filtering)，协同过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是在信息过滤和信息系统中正迅速成为一项很受欢迎的技术。与传统的基于内容过滤直接分析内容进行推荐不同，协同过滤分析用户兴趣，在用户群中找到指定用户的相似（兴趣）用户，综合这些相似用户对某一信息的评价，形成系统对该指定用户对此信息的喜好程度预测。它基于对用户历史行为数据的挖掘发现用户的喜好偏向，并预测用户可能喜好的产品进行推荐。也就是常见的“猜你喜欢”，和“购买了该商品的人也喜欢”等功能。它的主要实现由：根据和你有共同喜好的人给你推荐，根据你喜欢的物品给你推荐相似物品，根据以上条件综合推荐。因此可以得出常用的协同过滤算法分为两种，基于用户的协同过滤算法(user-based collaboratIve filtering)，以及基于物品的协同过滤算法(item-based collaborative filtering)。特点可以概括为“人以类聚，物以群分”，并据此进行预测和推荐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LASSO回归 (Least Absolute Shrinkage and Selection Operator)回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该方法是一种压缩估计。它通过构造一个惩罚函数得到一个较为精炼的模型，使得它压缩一些回归系数，即强制系数绝对值之和小于某个固定值；同时设定一些回归系数为零。因此保留了子集收缩的优点，是一种处理具有复共线性数据的有偏估计。Lasso回归有时也叫做线性回归的L1正则化，和Ridge回归的主要区别就是在正则化项，Ridge回归用的是L2正则化，而Lasso回归用的是L1正则化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ridge回归 岭回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在机器学习中，如果特征很多，但是训练数据量不够大的情况下，学习器很容易把特有的一些特点也当做是整个样本空间的一般性质进行学习，这就会出现过拟合的现象，线性回归模型也不例外。对于过拟合，在模型层面上我们一般会在模型中加入正则化项来优化模型，正则化项一般分为两种：L1正则和L2正则。线性回归的L2正则称为Ridge回归（岭回归），其与普通线性回归模型的区别是在损失函数上增加了一个L2正则项。Ridge回归（L2正则）会倾向于让模型选择更小的参数，但不会使参数为0，所以L2正则不会减少模型的特征；而Lasso回归（L1正则）能使一些“不重要”的特征的参数为0，相当于丢弃了这个特征，简化了模型。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -70,7 +997,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +1007,23 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -108,10 +1052,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -392,16 +1334,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.9140625" customWidth="1"/>
-    <col min="2" max="2" width="127.75" customWidth="1"/>
+    <col min="2" max="2" width="58.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -412,28 +1354,899 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="70" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="84" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B105" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
